--- a/dtpu_configurations/only_integer16/80mhz/mxu_7x7/power.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_7x7/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.03265812620520592</v>
+        <v>0.03421546146273613</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.014285740442574024</v>
+        <v>0.01668214239180088</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.01082578394562006</v>
+        <v>0.01089771743863821</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0099388612434268</v>
+        <v>0.010323453694581985</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.140501601388678E-4</v>
+        <v>4.0557500324212015E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.003436380997300148</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1271258294582367</v>
+        <v>0.12767818570137024</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4604356288909912</v>
+        <v>1.4655897617340088</v>
       </c>
     </row>
   </sheetData>
